--- a/DateBase/orders/Nhat 48_2026-2-28.xlsx
+++ b/DateBase/orders/Nhat 48_2026-2-28.xlsx
@@ -1044,6 +1044,9 @@
       <c r="G2" t="str">
         <v>0156557410615510101015303030201058101515105622610881212515151585455510655155515105558583055512</v>
       </c>
+      <c r="H2" t="str">
+        <v>CNY</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
